--- a/fpt_download/input.xlsx
+++ b/fpt_download/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\AI\rainscales\bai_tap\python-nang-cao\fpt_download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718585D9-C0DB-4961-9472-83A9F3B43357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CDE53-40F2-44D4-BFB5-E56521E34E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,9 +48,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>0304244470</t>
-  </si>
-  <si>
     <t>r08e17y79g</t>
   </si>
   <si>
@@ -93,6 +88,9 @@
   </si>
   <si>
     <t>MIJ634K9JAD</t>
+  </si>
+  <si>
+    <t>304244470</t>
   </si>
 </sst>
 </file>
@@ -425,7 +423,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -468,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -482,13 +480,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -496,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/fpt_download/input.xlsx
+++ b/fpt_download/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\AI\rainscales\bai_tap\python-nang-cao\fpt_download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CDE53-40F2-44D4-BFB5-E56521E34E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F29DB9-86D7-49F4-B3F8-CC074E381635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
